--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -1,76 +1,317 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B55D7-D475-4965-864F-39EBD6327E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="clue" sheetId="1" r:id="rId1"/>
-    <sheet name="task" sheetId="2" r:id="rId2"/>
-    <sheet name="mail" sheetId="3" r:id="rId3"/>
-    <sheet name="notice" sheetId="4" r:id="rId4"/>
+    <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="receivables" sheetId="2" r:id="rId2"/>
+    <sheet name="knowledge" sheetId="3" r:id="rId3"/>
+    <sheet name="systemsettings" sheetId="4" r:id="rId4"/>
+    <sheet name="datas" sheetId="5" r:id="rId5"/>
+    <sheet name="business" sheetId="6" r:id="rId6"/>
+    <sheet name="search" sheetId="7" r:id="rId7"/>
+    <sheet name="clue" sheetId="8" r:id="rId8"/>
+    <sheet name="task" sheetId="9" r:id="rId9"/>
+    <sheet name="mail" sheetId="10" r:id="rId10"/>
+    <sheet name="notice" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+  <si>
+    <t>goodsname</t>
+  </si>
+  <si>
+    <t>developmentteam</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>天子笑</t>
+  </si>
+  <si>
+    <t>云生不知处</t>
+  </si>
+  <si>
+    <t>十全大补丸</t>
+  </si>
+  <si>
+    <t>张欢</t>
+  </si>
+  <si>
+    <t>----暂无数据！----</t>
+  </si>
+  <si>
+    <t>financename</t>
+  </si>
+  <si>
+    <t>financenames</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>editfinancename</t>
+  </si>
+  <si>
+    <t>zhaijun</t>
+  </si>
+  <si>
+    <t>天子笑兮你一坛</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>edittit</t>
+  </si>
+  <si>
+    <t>云深不知处 《虞美人》</t>
+  </si>
+  <si>
+    <t>我想你了</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
+  </si>
+  <si>
+    <t>logoname</t>
+  </si>
+  <si>
+    <t>enterprompt</t>
+  </si>
+  <si>
+    <t>外婆的道歉信</t>
+  </si>
+  <si>
+    <t>张欢的书店</t>
+  </si>
+  <si>
+    <t>客户名称520</t>
+  </si>
+  <si>
+    <t>取消列表显示</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>elename</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>保安</t>
+  </si>
+  <si>
+    <t>yy1</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>研发</t>
+  </si>
+  <si>
+    <t>yy2</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>yy3</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>yy4</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>运输人员</t>
+  </si>
+  <si>
+    <t>yy5</t>
+  </si>
+  <si>
+    <t>阳光</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>yy6</t>
+  </si>
+  <si>
+    <t>下雨了</t>
+  </si>
+  <si>
+    <t>组长</t>
+  </si>
+  <si>
+    <t>yy7</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>部长</t>
+  </si>
+  <si>
+    <t>yy8</t>
+  </si>
+  <si>
+    <t>秘书</t>
+  </si>
+  <si>
+    <t>yy9</t>
+  </si>
+  <si>
+    <t>yy10</t>
+  </si>
+  <si>
+    <t>yy11</t>
+  </si>
+  <si>
+    <t>yy12</t>
+  </si>
+  <si>
+    <t>yy13</t>
+  </si>
+  <si>
+    <t>yy14</t>
+  </si>
+  <si>
+    <t>shopname</t>
+  </si>
+  <si>
+    <t>yujiniprics</t>
+  </si>
+  <si>
+    <t>tgdsw11</t>
+  </si>
+  <si>
+    <t>tgdsw12</t>
+  </si>
+  <si>
+    <t>tgdsw13</t>
+  </si>
+  <si>
+    <t>tgdsw14</t>
+  </si>
+  <si>
+    <t>tgdsw15</t>
+  </si>
+  <si>
+    <t>tgdsw16</t>
+  </si>
+  <si>
+    <t>tgdsw17</t>
+  </si>
+  <si>
+    <t>tgdsw18</t>
+  </si>
+  <si>
+    <t>tgdsw19</t>
+  </si>
+  <si>
+    <t>tgdsw20</t>
+  </si>
+  <si>
+    <t>tgdsw21</t>
+  </si>
+  <si>
+    <t>tgdsw22</t>
+  </si>
+  <si>
+    <t>tgdsw23</t>
+  </si>
+  <si>
+    <t>tgdsw24</t>
+  </si>
+  <si>
+    <t>serach</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>好好</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
   <si>
     <t>gsname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contactname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沁园春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nichao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金沙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加客户成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地上霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
   </si>
   <si>
     <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ztcontent</t>
@@ -82,99 +323,74 @@
     <t>考试通知</t>
   </si>
   <si>
-    <t>考试通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>接口自动化考试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已成功关闭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>元旦通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>元旦放假安排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>nrcontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reeecontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>知道了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设置已读成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>btcontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcontent</t>
+  </si>
+  <si>
+    <t>sercontent</t>
   </si>
   <si>
     <t>添加公告测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公告测试内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公告添加成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alcontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>就一句</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公告保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改成功，已停用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sercontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花木兰公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,36 +399,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,9 +752,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -230,24 +1004,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,307 +1329,996 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="27.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E427D90E-8683-43E6-8C47-A285C4DBA009}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A9E42-0B3A-44E9-A253-3BE398F0DAE9}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="19.9296875" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A9F1E9-5083-4F0D-8171-DE8994775A4D}">
-  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="2" width="19.53125" customWidth="1"/>
-    <col min="3" max="3" width="20.46484375" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18723458765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18723458766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18723458767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18723458768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18723458769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18723458770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18723458771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18723458772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18723458773</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18723458774</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18723458775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18723458776</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18723458777</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18723458778</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2">
+        <v>18723458779</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2">
+        <v>18723458780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DCF27A-7032-404A-A967-D8B36A704398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="14400" windowHeight="8438" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>goodsname</t>
   </si>
@@ -378,19 +384,17 @@
   </si>
   <si>
     <t>修改成功，已停用</t>
+  </si>
+  <si>
+    <t>花木兰的迪士尼乐园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,345 +410,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -752,255 +441,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,65 +460,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,26 +735,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -1390,39 +796,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -1433,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -1441,12 +846,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1454,41 +859,40 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -1505,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1516,12 +920,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
@@ -1529,12 +933,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>112</v>
       </c>
@@ -1543,31 +947,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="4:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>15</v>
       </c>
@@ -1623,35 +1026,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -1693,35 +1095,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1757,33 +1158,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +1197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1211,7 @@
         <v>18723458765</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +1225,7 @@
         <v>18723458766</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +1239,7 @@
         <v>18723458767</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1853,7 +1253,7 @@
         <v>18723458768</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1867,7 +1267,7 @@
         <v>18723458769</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1881,7 +1281,7 @@
         <v>18723458770</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1895,7 +1295,7 @@
         <v>18723458771</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1906,7 +1306,7 @@
         <v>18723458772</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1917,7 +1317,7 @@
         <v>18723458773</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -1925,7 +1325,7 @@
         <v>18723458774</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -1933,7 +1333,7 @@
         <v>18723458775</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -1941,7 +1341,7 @@
         <v>18723458776</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1349,7 @@
         <v>18723458777</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>62</v>
       </c>
@@ -1957,37 +1357,36 @@
         <v>18723458778</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <v>18723458779</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>18723458780</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1995,7 +1394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2003,7 +1402,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2011,7 +1410,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2019,7 +1418,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2027,7 +1426,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2035,7 +1434,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2043,7 +1442,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2051,7 +1450,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2059,7 +1458,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +1466,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +1474,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2083,7 +1482,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2091,7 +1490,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2099,7 +1498,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2108,84 +1507,82 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.53125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -2199,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -2213,13 +1610,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -2227,13 +1624,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2248,28 +1647,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2280,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -2291,22 +1690,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -2318,7 +1717,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>